--- a/files/jugadores1.xlsx
+++ b/files/jugadores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgebustamante/Documents2/code/GITHUB/copa_frisa_capibaras_TC2007B/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA61E79-A9D2-BD4B-82D0-5FE9BA440CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885D94B8-A6C3-7547-B2A5-9077BE5B06EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{ABBBF26F-9C53-A442-85C4-9874AE4D1042}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>Nombre Display</t>
   </si>
@@ -405,13 +405,28 @@
   </si>
   <si>
     <t>Herrera</t>
+  </si>
+  <si>
+    <t>Posicion</t>
+  </si>
+  <si>
+    <t>Portero</t>
+  </si>
+  <si>
+    <t>Delantero</t>
+  </si>
+  <si>
+    <t>Defensa</t>
+  </si>
+  <si>
+    <t>Mediocampista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +442,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -436,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -444,14 +467,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B49D41-C71C-B94C-94A8-B854217A966B}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L1" sqref="L1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +845,7 @@
     <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,8 +879,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -873,8 +917,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -908,8 +955,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -943,8 +993,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -978,8 +1031,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1013,8 +1069,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1048,8 +1107,11 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1083,8 +1145,11 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1118,8 +1183,11 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1153,8 +1221,11 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1188,8 +1259,11 @@
       <c r="K11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1223,8 +1297,11 @@
       <c r="K12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1258,8 +1335,11 @@
       <c r="K13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1293,8 +1373,11 @@
       <c r="K14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1328,8 +1411,11 @@
       <c r="K15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1363,8 +1449,12 @@
       <c r="K16">
         <v>3</v>
       </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>